--- a/Conductivites_Data.xlsx
+++ b/Conductivites_Data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasgolomb/Box/Results/MOFs/ConductivityChart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62812DF0-157F-D941-8ABB-B451255047F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5EB17A-F3F5-6A4B-8AEB-E5976E456ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{FA4547AC-B233-9C41-8F1C-4177ED449BD6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FA4547AC-B233-9C41-8F1C-4177ED449BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Pathway</t>
-  </si>
-  <si>
     <t>Dimensionality</t>
   </si>
   <si>
@@ -56,15 +53,9 @@
     <t>3D</t>
   </si>
   <si>
-    <t xml:space="preserve">Through-Bond </t>
-  </si>
-  <si>
     <t>Fe2DSBDC</t>
   </si>
   <si>
-    <t>Through-Bond</t>
-  </si>
-  <si>
     <t>Fe(1,2,3-triazolate)</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>Fe(1,2,3-triazolate)(BF4)0.33</t>
   </si>
   <si>
-    <t>Fe2(BDT)3</t>
-  </si>
-  <si>
     <t>Fe2(BDT)3 (oxidized)</t>
   </si>
   <si>
@@ -98,18 +86,12 @@
     <t>Cu3(HOTP)2</t>
   </si>
   <si>
-    <t>Through-Bond / Through-Space</t>
-  </si>
-  <si>
     <t>Ho(1+x)(HOTP)</t>
   </si>
   <si>
     <t>Pt3(THT)2</t>
   </si>
   <si>
-    <t>Through-Space</t>
-  </si>
-  <si>
     <t>Fe3(THT)2</t>
   </si>
   <si>
@@ -158,9 +140,6 @@
     <t>I2@Eu4(BPT)4</t>
   </si>
   <si>
-    <t>Guest</t>
-  </si>
-  <si>
     <t>I2@Zn3(lac)2(pybz)2</t>
   </si>
   <si>
@@ -189,6 +168,12 @@
   </si>
   <si>
     <t>BET</t>
+  </si>
+  <si>
+    <t>Porous</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -552,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B93FB-1713-AB49-BBD4-53A468A75EB5}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,7 +548,7 @@
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="31.83203125" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
     <col min="7" max="7" width="71.6640625" customWidth="1"/>
   </cols>
@@ -573,36 +558,37 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>248</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" s="2" t="str">
+        <f>IF(C2&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E2">
         <v>2013</v>
@@ -613,16 +599,17 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
+      <c r="D3" s="2" t="str">
+        <f>IF(C3&gt;100,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="E3">
         <v>2013</v>
@@ -633,16 +620,17 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>370</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="D4" s="2" t="str">
+        <f>IF(C4&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E4">
         <v>2018</v>
@@ -653,16 +641,17 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>450</v>
       </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="D5" s="2" t="str">
+        <f>IF(C5&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E5">
         <v>2012</v>
@@ -673,16 +662,17 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
+      <c r="D6" s="2" t="str">
+        <f>IF(C6&gt;100,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="E6">
         <v>2018</v>
@@ -693,592 +683,634 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>614</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IF(C7&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E7">
         <v>2018</v>
       </c>
-      <c r="F7" s="2">
-        <v>6.0000000000000002E-5</v>
+      <c r="F7">
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>614</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
+        <v>1230</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IF(C8&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E8">
         <v>2018</v>
       </c>
-      <c r="F8">
-        <v>1.8</v>
+      <c r="F8" s="2">
+        <v>3.4999999999999998E-7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1230</v>
-      </c>
-      <c r="D9" t="s">
-        <v>9</v>
+        <v>610</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IF(C9&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E9">
         <v>2018</v>
       </c>
-      <c r="F9" s="2">
-        <v>3.4999999999999998E-7</v>
+      <c r="F9">
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>610</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IF(C10&gt;100,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="E10">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F10">
-        <v>2.5000000000000001E-2</v>
+        <v>10.96</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IF(C11&gt;100,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="E11">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="F11">
-        <v>10.96</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>1175</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IF(C12&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E12">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F12">
-        <v>0.16</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13">
-        <v>1175</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E13">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F13">
-        <v>1.4E-2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>306</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IF(C14&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E14">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="F14">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>306</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
+        <v>208</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IF(C15&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E15">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="F15">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>208</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
+        <v>300</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IF(C16&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E16">
-        <v>2019</v>
-      </c>
-      <c r="F16">
-        <v>0.05</v>
+        <v>2014</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.3999999999999999E-6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>300</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
+        <v>526</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>IF(C17&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E17">
-        <v>2014</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.3999999999999999E-6</v>
+        <v>2018</v>
+      </c>
+      <c r="F17">
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>526</v>
+        <v>210</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>IF(C18&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E18">
         <v>2018</v>
       </c>
       <c r="F18">
-        <v>3.4000000000000002E-2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
-        <v>210</v>
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E19">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E20">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F20">
-        <v>0.15</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>IF(C21&gt;100,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="E21">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F21">
-        <v>150</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>IF(C22&gt;100,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="E22">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="F22">
-        <v>2500</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>5</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>IF(C23&gt;100,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="E23">
-        <v>2019</v>
-      </c>
-      <c r="F23">
-        <v>110</v>
+        <v>2008</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1.9999999999999999E-6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>630</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>IF(C24&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E24">
-        <v>2008</v>
-      </c>
-      <c r="F24" s="2">
-        <v>1.9999999999999999E-6</v>
+        <v>2014</v>
+      </c>
+      <c r="F24">
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
-        <v>630</v>
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E25">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F25">
-        <v>150</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>114</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f>IF(C26&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E26">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F26">
-        <v>0.2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>114</v>
+        <v>2298</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>IF(C27&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E27">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>2298</v>
+        <v>559</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>IF(C28&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E28">
-        <v>2019</v>
-      </c>
-      <c r="F28">
-        <v>359</v>
+        <v>2015</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2.9E-4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29">
-        <v>559</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E29">
-        <v>2015</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2.9E-4</v>
+        <v>2019</v>
+      </c>
+      <c r="F29">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
+        <v>5</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E30">
-        <v>2019</v>
-      </c>
-      <c r="F30">
-        <v>3.3000000000000002E-2</v>
+        <v>2009</v>
+      </c>
+      <c r="F30" s="2">
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>385</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>IF(C31&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E31">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F31" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>1E-8</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32">
-        <v>385</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E32">
-        <v>2010</v>
-      </c>
-      <c r="F32" s="2">
-        <v>1E-8</v>
+        <v>2019</v>
+      </c>
+      <c r="F32">
+        <v>0.04</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f>IF(C33&gt;100,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="E33">
-        <v>2019</v>
-      </c>
-      <c r="F33">
-        <v>0.04</v>
+        <v>2014</v>
+      </c>
+      <c r="F33" s="2">
+        <v>8.1999999999999998E-7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>69.599999999999994</v>
-      </c>
-      <c r="D34" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="F34" s="2">
-        <v>8.1999999999999998E-7</v>
+        <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>214</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f>IF(C35&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E35">
-        <v>2010</v>
-      </c>
-      <c r="F35" s="2">
-        <v>3.3999999999999998E-3</v>
+        <v>2014</v>
+      </c>
+      <c r="F35">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E36">
-        <v>2014</v>
-      </c>
-      <c r="F36">
-        <v>7.0000000000000007E-2</v>
+        <v>2019</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2.7000000000000001E-7</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>41</v>
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>1550</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f>IF(C37&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E37">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F37" s="2">
-        <v>2.7000000000000001E-7</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>1550</v>
-      </c>
-      <c r="D38" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>IF(C38&gt;100,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="E38">
+        <v>2020</v>
+      </c>
+      <c r="F38">
+        <v>11.5</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E38">
-        <v>2018</v>
-      </c>
-      <c r="F38" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39">
-        <v>280</v>
-      </c>
-      <c r="D39" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39">
-        <v>2020</v>
-      </c>
-      <c r="F39">
-        <v>11.5</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G39" r:id="rId1" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apcatb.2020.119295" xr:uid="{24DED032-023F-0D46-A810-55E26F992CF0}"/>
+    <hyperlink ref="G38" r:id="rId1" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apcatb.2020.119295" xr:uid="{24DED032-023F-0D46-A810-55E26F992CF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Conductivites_Data.xlsx
+++ b/Conductivites_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasgolomb/Box/Results/MOFs/ConductivityChart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasgolomb/Documents/GitHub/ConductivityChart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5EB17A-F3F5-6A4B-8AEB-E5976E456ED6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3047FD-C4DC-3A4B-96A4-B3EE09E36E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{FA4547AC-B233-9C41-8F1C-4177ED449BD6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{FA4547AC-B233-9C41-8F1C-4177ED449BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -174,6 +174,39 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>10.1002/adfm.202007294</t>
+  </si>
+  <si>
+    <t>Cu(H2O)(2,6-NDPA)0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/anie.201912642 </t>
+  </si>
+  <si>
+    <t>Cu-BDC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41557-019-0372-0 </t>
+  </si>
+  <si>
+    <t>HoHTTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41557-021-00666-6 </t>
+  </si>
+  <si>
+    <t>Cr(tri)2(CF3SO3)0.33</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Fe-HHTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1002/anie.202102670 </t>
   </si>
 </sst>
 </file>
@@ -537,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B93FB-1713-AB49-BBD4-53A468A75EB5}">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,7 +620,7 @@
         <v>248</v>
       </c>
       <c r="D2" s="2" t="str">
-        <f>IF(C2&gt;100,"Yes","No")</f>
+        <f t="shared" ref="D2:D12" si="0">IF(C2&gt;100,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="E2">
@@ -608,7 +641,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="2" t="str">
-        <f>IF(C3&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="E3">
@@ -629,7 +662,7 @@
         <v>370</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>IF(C4&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="E4">
@@ -650,7 +683,7 @@
         <v>450</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>IF(C5&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="E5">
@@ -671,13 +704,13 @@
         <v>50</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>IF(C6&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="E6">
         <v>2018</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>0.3</v>
       </c>
     </row>
@@ -692,7 +725,7 @@
         <v>614</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>IF(C7&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="E7">
@@ -713,7 +746,7 @@
         <v>1230</v>
       </c>
       <c r="D8" s="2" t="str">
-        <f>IF(C8&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="E8">
@@ -734,7 +767,7 @@
         <v>610</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>IF(C9&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="E9">
@@ -755,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="str">
-        <f>IF(C10&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="E10">
@@ -773,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>IF(C11&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="E11">
@@ -794,7 +827,7 @@
         <v>1175</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>IF(C12&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="E12">
@@ -1301,11 +1334,123 @@
       <c r="E38">
         <v>2020</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>11.5</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <v>2020</v>
+      </c>
+      <c r="F39" s="2">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>271</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40">
+        <v>2020</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>208</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41">
+        <v>2020</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>80</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42">
+        <v>2021</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>1400</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E43">
+        <v>2021</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G43" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Conductivites_Data.xlsx
+++ b/Conductivites_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasgolomb/Documents/GitHub/ConductivityChart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3047FD-C4DC-3A4B-96A4-B3EE09E36E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F99A28-203C-844C-8147-E9776712A18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{FA4547AC-B233-9C41-8F1C-4177ED449BD6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t xml:space="preserve">10.1002/anie.202102670 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/acsaem.0c02758 </t>
+  </si>
+  <si>
+    <t>Ni3(HAB)2</t>
   </si>
 </sst>
 </file>
@@ -570,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B93FB-1713-AB49-BBD4-53A468A75EB5}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1453,6 +1459,29 @@
         <v>57</v>
       </c>
     </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>133</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44">
+        <v>2021</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="G44" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G38" r:id="rId1" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apcatb.2020.119295" xr:uid="{24DED032-023F-0D46-A810-55E26F992CF0}"/>

--- a/Conductivites_Data.xlsx
+++ b/Conductivites_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasgolomb/Documents/GitHub/ConductivityChart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F99A28-203C-844C-8147-E9776712A18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E575370-F18F-C644-A939-9E343F8399B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{FA4547AC-B233-9C41-8F1C-4177ED449BD6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -213,6 +213,102 @@
   </si>
   <si>
     <t>Ni3(HAB)2</t>
+  </si>
+  <si>
+    <t>10.1021/ja0770983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/ic802117q </t>
+  </si>
+  <si>
+    <t>10.1021/cm101238m</t>
+  </si>
+  <si>
+    <t>10.1021/ja908293n</t>
+  </si>
+  <si>
+    <t>10.1002/chem.201103433</t>
+  </si>
+  <si>
+    <t>10.1021/cm301194a</t>
+  </si>
+  <si>
+    <t>10.1021/jacs.5b02897</t>
+  </si>
+  <si>
+    <t>10.1021/ja312380b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/ja502765n </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1126/science.1246738 </t>
+  </si>
+  <si>
+    <t>10.1039/C4CC00408F</t>
+  </si>
+  <si>
+    <t>10.1021/ja507619d</t>
+  </si>
+  <si>
+    <t>10.1039/C3TA13179C</t>
+  </si>
+  <si>
+    <t>10.1021/jacs.5b10385</t>
+  </si>
+  <si>
+    <t>10.1038/ncomms8408</t>
+  </si>
+  <si>
+    <t>10.1002/anie.201411854</t>
+  </si>
+  <si>
+    <t>10.1021/ja512437u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/jacs.7b00705 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/jacs.7b07234 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/jacs.8b03696 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/jacs.8b03604 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41563-018-0098-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1021/jacs.7b13510 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41563-018-0189-z </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.1038/s41467-018-05141-4</t>
+  </si>
+  <si>
+    <t>10.1039/C8SC00961A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1038/s41467-019-09682-0 </t>
+  </si>
+  <si>
+    <t>10.1002/advs.201802235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1039/c8ee02679c </t>
+  </si>
+  <si>
+    <t>10.1021/jacs.9b01717</t>
+  </si>
+  <si>
+    <t>10.1016/j.synthmet.2019.04.018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/j.inoche.2019.04.037 </t>
   </si>
 </sst>
 </file>
@@ -578,16 +674,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B93FB-1713-AB49-BBD4-53A468A75EB5}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" customWidth="1"/>
-    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="38" customWidth="1"/>
     <col min="7" max="7" width="71.6640625" customWidth="1"/>
   </cols>
@@ -617,677 +713,783 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>248</v>
-      </c>
       <c r="D2" s="2" t="str">
-        <f t="shared" ref="D2:D12" si="0">IF(C2&gt;100,"Yes","No")</f>
-        <v>Yes</v>
+        <f>IF(C2&gt;100,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="E2">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F2" s="2">
-        <v>3.2000000000000001E-7</v>
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F3" s="2">
-        <v>3.8999999999999999E-6</v>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C4&gt;100,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="E4">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="F4" s="2">
-        <v>6.9999999999999998E-9</v>
+        <v>1E-8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
-        <v>450</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F5" s="2">
-        <v>7.7000000000000001E-5</v>
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(C6&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E6">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="F6" s="2">
-        <v>0.3</v>
+        <v>7.7000000000000001E-5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>614</v>
+        <v>306</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C7&gt;100,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="E7">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="F7">
-        <v>1.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>1230</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>2018</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3.4999999999999998E-7</v>
+        <v>2013</v>
+      </c>
+      <c r="F8">
+        <v>0.15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>610</v>
+        <v>300</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C9&gt;100,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="E9">
-        <v>2018</v>
-      </c>
-      <c r="F9">
-        <v>2.5000000000000001E-2</v>
+        <v>2014</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.3999999999999999E-6</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E10">
-        <v>2019</v>
+        <v>2014</v>
       </c>
       <c r="F10">
-        <v>10.96</v>
+        <v>150</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>630</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>No</v>
+        <f>IF(C11&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E11">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="F11">
-        <v>0.16</v>
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1175</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
+        <f>IF(C12&gt;100,"Yes","No")</f>
+        <v>No</v>
       </c>
       <c r="E12">
-        <v>2017</v>
-      </c>
-      <c r="F12">
-        <v>1.4E-2</v>
+        <v>2014</v>
+      </c>
+      <c r="F12" s="2">
+        <v>8.1999999999999998E-7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>214</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IF(C13&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E13">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="F13">
-        <v>0.45</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c r="D14" s="2" t="str">
         <f>IF(C14&gt;100,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="E14">
-        <v>2012</v>
-      </c>
-      <c r="F14">
-        <v>0.1</v>
+        <v>2015</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3.2000000000000001E-7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="str">
         <f>IF(C15&gt;100,"Yes","No")</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="E15">
-        <v>2019</v>
-      </c>
-      <c r="F15">
-        <v>0.05</v>
+        <v>2015</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3.8999999999999999E-6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>IF(C16&gt;100,"Yes","No")</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="E16">
-        <v>2014</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.3999999999999999E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+      <c r="F16">
+        <v>0.16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="C17">
-        <v>526</v>
-      </c>
       <c r="D17" s="2" t="str">
         <f>IF(C17&gt;100,"Yes","No")</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="E17">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="F17">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2500</v>
+      </c>
+      <c r="G17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18">
-        <v>210</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f>IF(C18&gt;100,"Yes","No")</f>
-        <v>Yes</v>
+      <c r="D18" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="F18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>559</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>IF(C19&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E19">
-        <v>2013</v>
-      </c>
-      <c r="F19">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2015</v>
+      </c>
+      <c r="F19" s="2">
+        <v>2.9E-4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
+      <c r="C20">
+        <v>1175</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>IF(C20&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E20">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F20">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
+      <c r="C21">
+        <v>114</v>
+      </c>
       <c r="D21" s="2" t="str">
         <f>IF(C21&gt;100,"Yes","No")</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="E21">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F21">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="G21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>370</v>
       </c>
       <c r="D22" s="2" t="str">
         <f>IF(C22&gt;100,"Yes","No")</f>
-        <v>No</v>
+        <v>Yes</v>
       </c>
       <c r="E22">
-        <v>2019</v>
-      </c>
-      <c r="F22">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="F22" s="2">
+        <v>6.9999999999999998E-9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>5</v>
+      </c>
+      <c r="C23">
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="str">
         <f>IF(C23&gt;100,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="E23">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="F23" s="2">
-        <v>1.9999999999999999E-6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="D24" s="2" t="str">
         <f>IF(C24&gt;100,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="E24">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="F24">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>1230</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>IF(C25&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E25">
-        <v>2015</v>
-      </c>
-      <c r="F25">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="F25" s="2">
+        <v>3.4999999999999998E-7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>114</v>
+        <v>610</v>
       </c>
       <c r="D26" s="2" t="str">
         <f>IF(C26&gt;100,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="E26">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F26">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C27">
-        <v>2298</v>
-      </c>
-      <c r="D27" s="2" t="str">
-        <f>IF(C27&gt;100,"Yes","No")</f>
-        <v>Yes</v>
+      <c r="D27" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E27">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F27">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>559</v>
+        <v>526</v>
       </c>
       <c r="D28" s="2" t="str">
         <f>IF(C28&gt;100,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="E28">
-        <v>2015</v>
-      </c>
-      <c r="F28" s="2">
-        <v>2.9E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2018</v>
+      </c>
+      <c r="F28">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>210</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f>IF(C29&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E29">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F29">
-        <v>3.3000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>46</v>
+      <c r="C30">
+        <v>1550</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f>IF(C30&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E30">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="F30" s="2">
-        <v>5.9999999999999995E-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1E-3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
       <c r="C31">
-        <v>385</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2" t="str">
         <f>IF(C31&gt;100,"Yes","No")</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="E31">
-        <v>2010</v>
-      </c>
-      <c r="F31" s="2">
-        <v>1E-8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2019</v>
+      </c>
+      <c r="F31">
+        <v>10.96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>46</v>
+      <c r="C32">
+        <v>208</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f>IF(C32&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E32">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F32">
-        <v>0.04</v>
+        <v>0.05</v>
+      </c>
+      <c r="G32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>69.599999999999994</v>
+        <v>14</v>
       </c>
       <c r="D33" s="2" t="str">
         <f>IF(C33&gt;100,"Yes","No")</f>
         <v>No</v>
       </c>
       <c r="E33">
-        <v>2014</v>
-      </c>
-      <c r="F33" s="2">
-        <v>8.1999999999999998E-7</v>
+        <v>2019</v>
+      </c>
+      <c r="F33">
+        <v>110</v>
+      </c>
+      <c r="G33" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>2298</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f>IF(C34&gt;100,"Yes","No")</f>
+        <v>Yes</v>
       </c>
       <c r="E34">
-        <v>2010</v>
-      </c>
-      <c r="F34" s="2">
-        <v>3.3999999999999998E-3</v>
+        <v>2019</v>
+      </c>
+      <c r="F34">
+        <v>359</v>
+      </c>
+      <c r="G34" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="C35">
-        <v>214</v>
-      </c>
-      <c r="D35" s="2" t="str">
-        <f>IF(C35&gt;100,"Yes","No")</f>
-        <v>Yes</v>
+      <c r="D35" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E35">
-        <v>2014</v>
+        <v>2019</v>
       </c>
       <c r="F35">
-        <v>7.0000000000000007E-2</v>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1298,29 +1500,31 @@
       <c r="E36">
         <v>2019</v>
       </c>
-      <c r="F36" s="2">
-        <v>2.7000000000000001E-7</v>
+      <c r="F36">
+        <v>0.04</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
-      <c r="C37">
-        <v>1550</v>
-      </c>
-      <c r="D37" s="2" t="str">
-        <f>IF(C37&gt;100,"Yes","No")</f>
-        <v>Yes</v>
+      <c r="D37" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E37">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F37" s="2">
-        <v>1E-3</v>
+        <v>2.7000000000000001E-7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1483,6 +1687,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G44">
+    <sortCondition ref="E2:E44"/>
+  </sortState>
   <hyperlinks>
     <hyperlink ref="G38" r:id="rId1" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apcatb.2020.119295" xr:uid="{24DED032-023F-0D46-A810-55E26F992CF0}"/>
   </hyperlinks>

--- a/Conductivites_Data.xlsx
+++ b/Conductivites_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthiasgolomb/Documents/GitHub/ConductivityChart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E575370-F18F-C644-A939-9E343F8399B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3877F52F-5D95-CF44-BCFF-38805B70B7CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{FA4547AC-B233-9C41-8F1C-4177ED449BD6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{FA4547AC-B233-9C41-8F1C-4177ED449BD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -309,6 +309,33 @@
   </si>
   <si>
     <t xml:space="preserve">10.1016/j.inoche.2019.04.037 </t>
+  </si>
+  <si>
+    <t>MnHHB</t>
+  </si>
+  <si>
+    <t>10.1039/D1CC06407J</t>
+  </si>
+  <si>
+    <t>10.1073/pnas.2205127119</t>
+  </si>
+  <si>
+    <t>La1.5(2,3,6,7,10,11-hexaoxytriphenylene)</t>
+  </si>
+  <si>
+    <t>Nd1.5(2,3,6,7,10,11-hexaoxytriphenylene)</t>
+  </si>
+  <si>
+    <t>Ni3(HATI_C1)2</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-022-34820-6</t>
+  </si>
+  <si>
+    <t>NiTAHQ-3D-ox</t>
+  </si>
+  <si>
+    <t>10.1021/jacs.2c00614</t>
   </si>
 </sst>
 </file>
@@ -672,15 +699,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9B93FB-1713-AB49-BBD4-53A468A75EB5}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
@@ -919,7 +946,7 @@
         <v>630</v>
       </c>
       <c r="D11" s="2" t="str">
-        <f>IF(C11&gt;100,"Yes","No")</f>
+        <f t="shared" ref="D11:D17" si="0">IF(C11&gt;100,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="E11">
@@ -943,7 +970,7 @@
         <v>69.599999999999994</v>
       </c>
       <c r="D12" s="2" t="str">
-        <f>IF(C12&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="E12">
@@ -967,7 +994,7 @@
         <v>214</v>
       </c>
       <c r="D13" s="2" t="str">
-        <f>IF(C13&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="E13">
@@ -991,7 +1018,7 @@
         <v>248</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>IF(C14&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
       <c r="E14">
@@ -1015,7 +1042,7 @@
         <v>54</v>
       </c>
       <c r="D15" s="2" t="str">
-        <f>IF(C15&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="E15">
@@ -1036,7 +1063,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>IF(C16&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="E16">
@@ -1057,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="str">
-        <f>IF(C17&gt;100,"Yes","No")</f>
+        <f t="shared" si="0"/>
         <v>No</v>
       </c>
       <c r="E17">
@@ -1101,7 +1128,7 @@
         <v>559</v>
       </c>
       <c r="D19" s="2" t="str">
-        <f>IF(C19&gt;100,"Yes","No")</f>
+        <f t="shared" ref="D19:D26" si="1">IF(C19&gt;100,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="E19">
@@ -1125,7 +1152,7 @@
         <v>1175</v>
       </c>
       <c r="D20" s="2" t="str">
-        <f>IF(C20&gt;100,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="E20">
@@ -1149,7 +1176,7 @@
         <v>114</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f>IF(C21&gt;100,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="E21">
@@ -1173,7 +1200,7 @@
         <v>370</v>
       </c>
       <c r="D22" s="2" t="str">
-        <f>IF(C22&gt;100,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="E22">
@@ -1197,7 +1224,7 @@
         <v>50</v>
       </c>
       <c r="D23" s="2" t="str">
-        <f>IF(C23&gt;100,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>No</v>
       </c>
       <c r="E23">
@@ -1221,7 +1248,7 @@
         <v>614</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>IF(C24&gt;100,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="E24">
@@ -1245,7 +1272,7 @@
         <v>1230</v>
       </c>
       <c r="D25" s="2" t="str">
-        <f>IF(C25&gt;100,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="E25">
@@ -1269,7 +1296,7 @@
         <v>610</v>
       </c>
       <c r="D26" s="2" t="str">
-        <f>IF(C26&gt;100,"Yes","No")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
       <c r="E26">
@@ -1313,7 +1340,7 @@
         <v>526</v>
       </c>
       <c r="D28" s="2" t="str">
-        <f>IF(C28&gt;100,"Yes","No")</f>
+        <f t="shared" ref="D28:D34" si="2">IF(C28&gt;100,"Yes","No")</f>
         <v>Yes</v>
       </c>
       <c r="E28">
@@ -1337,7 +1364,7 @@
         <v>210</v>
       </c>
       <c r="D29" s="2" t="str">
-        <f>IF(C29&gt;100,"Yes","No")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="E29">
@@ -1361,7 +1388,7 @@
         <v>1550</v>
       </c>
       <c r="D30" s="2" t="str">
-        <f>IF(C30&gt;100,"Yes","No")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="E30">
@@ -1385,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="2" t="str">
-        <f>IF(C31&gt;100,"Yes","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="E31">
@@ -1409,7 +1436,7 @@
         <v>208</v>
       </c>
       <c r="D32" s="2" t="str">
-        <f>IF(C32&gt;100,"Yes","No")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="E32">
@@ -1430,7 +1457,7 @@
         <v>14</v>
       </c>
       <c r="D33" s="2" t="str">
-        <f>IF(C33&gt;100,"Yes","No")</f>
+        <f t="shared" si="2"/>
         <v>No</v>
       </c>
       <c r="E33">
@@ -1454,7 +1481,7 @@
         <v>2298</v>
       </c>
       <c r="D34" s="2" t="str">
-        <f>IF(C34&gt;100,"Yes","No")</f>
+        <f t="shared" si="2"/>
         <v>Yes</v>
       </c>
       <c r="E34">
@@ -1684,6 +1711,115 @@
       </c>
       <c r="G44" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>44.7</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45">
+        <v>2022</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46">
+        <v>2022</v>
+      </c>
+      <c r="F46" s="2">
+        <v>900</v>
+      </c>
+      <c r="G46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>2022</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1080</v>
+      </c>
+      <c r="G47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>480</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48">
+        <v>2022</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>120</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49">
+        <v>2022</v>
+      </c>
+      <c r="F49" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1692,6 +1828,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="G38" r:id="rId1" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/j.apcatb.2020.119295" xr:uid="{24DED032-023F-0D46-A810-55E26F992CF0}"/>
+    <hyperlink ref="G45" r:id="rId2" tooltip="Link to landing page via DOI" display="https://doi.org/10.1039/D1CC06407J" xr:uid="{0F7039C1-A804-5342-86AA-BEFC2FC925F1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
